--- a/6_Lesson/New_students.xlsx
+++ b/6_Lesson/New_students.xlsx
@@ -261,7 +261,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AAA6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -270,21 +270,35 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Average marks</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Marks</t>
-        </is>
-      </c>
+      <c r="A1">
+        <f>SUM(B1:Z1)/4</f>
+        <v/>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Bob Hardy</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2">
@@ -293,21 +307,21 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Bob Hardy</t>
+          <t>Ann Dier</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="G2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -444,14 +458,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
